--- a/list.xlsx
+++ b/list.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Documents\Overdone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0BA01A-E9BB-44EA-82F6-45547DDDF232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B850F5-34D1-4C0F-8690-7A671A0A37B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List of items" sheetId="1" r:id="rId1"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId2"/>
+    <sheet name="Ideas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>Mythology</t>
   </si>
@@ -240,9 +242,6 @@
     <t>Sucellus</t>
   </si>
   <si>
-    <t>Parties</t>
-  </si>
-  <si>
     <t>Tekkeitsertok</t>
   </si>
   <si>
@@ -289,13 +288,132 @@
   </si>
   <si>
     <t>Sun</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>Dagda</t>
+  </si>
+  <si>
+    <t>Staff of the Dagda</t>
+  </si>
+  <si>
+    <t>Couldron of the Dagda</t>
+  </si>
+  <si>
+    <t>Creation</t>
+  </si>
+  <si>
+    <t>Lifesteal drain beam on nearby enemies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Combo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>increases faster. Potion cooldown reduced</t>
+    </r>
+  </si>
+  <si>
+    <t>Resurrect an ally</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Long-handled hammer</t>
+  </si>
+  <si>
+    <t>Regular swing, with aoe each 5th hit</t>
+  </si>
+  <si>
+    <t>Party buff: gives self/allies armor and melee speed</t>
+  </si>
+  <si>
+    <t>Festive</t>
+  </si>
+  <si>
+    <t>Party Mallet</t>
+  </si>
+  <si>
+    <t>Blessings</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>at specific combo levels, trigger a blessing based on "pleased gods" or whatever. For example, at 100 combo, let it rain coins/hearts/mana, or strike lightning, or restore health. Alternatively: if you use RMB (combo) when at a prime number, cast an astral nova. etc</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Altar</t>
+  </si>
+  <si>
+    <t>Affinity</t>
+  </si>
+  <si>
+    <t>Get affinity when doing stuff. For example, killing in ocean biome or while underwater can drop aquatic affinity, or in the top layers astral affinity. Alternatively (or both): Get Norse affinity while in snow biome, Egyptian while in desert, etc.</t>
+  </si>
+  <si>
+    <t>Use affinity at the altar to get a random item (must have some restriction regarding to power). Aquatic affinity spend can drop Neptunes Kiss, Norse affinity can drop Mjolnir, etc. Alternatively: Altar is a default crafting station, and you can just pick what you want if you have enough affinity (of the correct type).</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Let's mix classes up. LMB can do melee damage, RMB ranged, etc. Also, let's give accessories mixed stats to make "duo classes" worth it. For example, 8%+ ranged damage, 8% melee speed / restore 20 mana on melee crit / Magic damage empowers your next ranged attack, etc.</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Classically, weapons do stuff. Why not have "invicible" skills too? Why need a rod to do a magic blast?</t>
+  </si>
+  <si>
+    <t>Talon-like ulti effect on RMB</t>
+  </si>
+  <si>
+    <t>Chain lightning damage</t>
+  </si>
+  <si>
+    <t>Stat amount (projectile count, damage, crit, velocity, etc) increases per double amount of combo (2,4,8,16,32,etc)</t>
+  </si>
+  <si>
+    <t>Sacrifice a portion of your health to kickstart combo count</t>
+  </si>
+  <si>
+    <t>While in combat (hitting, shooting), get combo (a counter). Mythology weapons can use combo with RMB for effect. For example, consume 5 combo with RMB to shoot X. Alternatively: For each 10 combo, RMB costs 10% less mana. Should combo fade away after 30 seconds of non-combat?</t>
+  </si>
+  <si>
+    <t>some accessory that gives a default RMB effect to vanilla items. For example, a regular sword can RMB for a lightning bolt. Large variety possible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +423,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -332,9 +458,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -615,24 +743,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -661,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -687,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -713,7 +841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -734,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -754,7 +882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -774,7 +902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -785,7 +913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -802,7 +930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -813,7 +941,7 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -822,7 +950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -833,80 +961,255 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A9E94E-AF43-409E-B3FE-652B6E56D42B}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24201862-C354-4BAF-A7F0-E31CBE5F5ECA}">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/list.xlsx
+++ b/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaap-Jan\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B850F5-34D1-4C0F-8690-7A671A0A37B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5345D8-3605-45B7-B557-8CBF07B079B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46440" yWindow="2355" windowWidth="30360" windowHeight="18645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -746,17 +746,18 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B850F5-34D1-4C0F-8690-7A671A0A37B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE96BBC-175A-41F5-A8D5-9920F3EF9BFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>Mythology</t>
   </si>
@@ -407,6 +407,24 @@
   </si>
   <si>
     <t>some accessory that gives a default RMB effect to vanilla items. For example, a regular sword can RMB for a lightning bolt. Large variety possible</t>
+  </si>
+  <si>
+    <t>Thyrsus</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Dionysus</t>
+  </si>
+  <si>
+    <t>Stab and shoot acorns</t>
+  </si>
+  <si>
+    <t>Something epic</t>
+  </si>
+  <si>
+    <t>While holding this, hp regen is increased</t>
   </si>
 </sst>
 </file>
@@ -743,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1112,32 @@
       </c>
       <c r="I34" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaap-Jan\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Documents\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5345D8-3605-45B7-B557-8CBF07B079B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C814B59-4812-4564-9403-23A8FA40D52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46440" yWindow="2355" windowWidth="30360" windowHeight="18645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="140">
   <si>
     <t>Mythology</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Runesocesius' Javelin</t>
   </si>
   <si>
-    <t>Make it rain javelins</t>
-  </si>
-  <si>
     <t>Throw a javelin</t>
   </si>
   <si>
@@ -407,6 +404,138 @@
   </si>
   <si>
     <t>some accessory that gives a default RMB effect to vanilla items. For example, a regular sword can RMB for a lightning bolt. Large variety possible</t>
+  </si>
+  <si>
+    <t>Slingshot: rotate the sling 360 on auto, and shoot projectiles from the top of the rotation</t>
+  </si>
+  <si>
+    <t>Lugh</t>
+  </si>
+  <si>
+    <t>Warfare; Crafts</t>
+  </si>
+  <si>
+    <t>Fragarach</t>
+  </si>
+  <si>
+    <t>Sword given to first irish high king Nuada</t>
+  </si>
+  <si>
+    <t>Slashes, third strike is a wind attack</t>
+  </si>
+  <si>
+    <t>Att speed buff</t>
+  </si>
+  <si>
+    <t>Lugh's spear</t>
+  </si>
+  <si>
+    <t>Throw a guided spear</t>
+  </si>
+  <si>
+    <t>Summon: Spear that hunts enemies</t>
+  </si>
+  <si>
+    <t>Summon should dash through enemies</t>
+  </si>
+  <si>
+    <t>Lugh's sling</t>
+  </si>
+  <si>
+    <t>Shoots slingstones</t>
+  </si>
+  <si>
+    <t>Shoot a mana-infused projectile with high velocity</t>
+  </si>
+  <si>
+    <t>Aenbharr</t>
+  </si>
+  <si>
+    <t>Mount</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Horse with waterwalking</t>
+  </si>
+  <si>
+    <t>Morrigan</t>
+  </si>
+  <si>
+    <t>Warfare; Fate</t>
+  </si>
+  <si>
+    <t>Raven of Fate</t>
+  </si>
+  <si>
+    <t>Each time you get hit, increase combo by 1. Crit chance increased</t>
+  </si>
+  <si>
+    <t>Make it rain javelins like the harpy staff</t>
+  </si>
+  <si>
+    <t>Aengus Harp</t>
+  </si>
+  <si>
+    <t>Aengus</t>
+  </si>
+  <si>
+    <t>shoot musical notes in a vulcan arc</t>
+  </si>
+  <si>
+    <t>Shoot 'invisible' birds that heal allies and debuff enemies</t>
+  </si>
+  <si>
+    <t>ploink</t>
+  </si>
+  <si>
+    <t>Moralltach</t>
+  </si>
+  <si>
+    <t>Swing and occasionally release music notes</t>
+  </si>
+  <si>
+    <t>Dash forward, for each enemy hit release a note</t>
+  </si>
+  <si>
+    <t>Also ploink I guess</t>
+  </si>
+  <si>
+    <t>Epic of Gilgamesh</t>
+  </si>
+  <si>
+    <t>Sîn-lēqi-unninni (human)</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>Mesopotamian item count: 1(+4 def), 2(knockback resist), 3(weapon damage +15%), 4(+10% att&amp;move speed), 5(flight time greatly extended)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>The Odyssey</t>
+  </si>
+  <si>
+    <t>Homer (human)</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Greek item count: 1(+20 max hp/mp), 2(crit and supercrit chance +5), 3(bla), 4(bla), 5(bla)</t>
+  </si>
+  <si>
+    <t>Supercrit</t>
+  </si>
+  <si>
+    <t>Every crit has a chance to supercrit. Supercrit starts when regular crit chance is 100%</t>
   </si>
 </sst>
 </file>
@@ -743,54 +872,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -816,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -842,7 +972,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -853,6 +1000,9 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" t="s">
         <v>29</v>
       </c>
@@ -863,7 +1013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -877,13 +1027,19 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
       </c>
       <c r="I13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -897,13 +1053,19 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -914,7 +1076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -924,177 +1086,379 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
         <v>69</v>
       </c>
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>70</v>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1105,68 +1469,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A9E94E-AF43-409E-B3FE-652B6E56D42B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1177,36 +1549,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24201862-C354-4BAF-A7F0-E31CBE5F5ECA}">
-  <dimension ref="B1:B5"/>
+  <dimension ref="B1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>96</v>
       </c>
     </row>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Documents\Overdone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C814B59-4812-4564-9403-23A8FA40D52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C343D-08FC-47DD-9B19-F9CC793F9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -874,24 +874,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -946,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -972,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -989,7 +989,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>51</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>51</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>128</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -1471,13 +1471,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A9E94E-AF43-409E-B3FE-652B6E56D42B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>85</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>138</v>
       </c>
@@ -1555,34 +1555,34 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>96</v>
       </c>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C343D-08FC-47DD-9B19-F9CC793F9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A96329E-5EAB-4AD5-8C88-C04F1E14AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2535" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="189">
   <si>
     <t>Mythology</t>
   </si>
@@ -536,6 +536,153 @@
   </si>
   <si>
     <t>Every crit has a chance to supercrit. Supercrit starts when regular crit chance is 100%</t>
+  </si>
+  <si>
+    <t>Winged Petasos</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Afterlife</t>
+  </si>
+  <si>
+    <t>Parazonium</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Gives 'courage' buff</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Apollo's Bow</t>
+  </si>
+  <si>
+    <t>Shoots ranged arrows</t>
+  </si>
+  <si>
+    <t>Shoots fast but shorter magical arrows with burn</t>
+  </si>
+  <si>
+    <t>RMB shouldnt cost combo</t>
+  </si>
+  <si>
+    <t>Lapis Manalis</t>
+  </si>
+  <si>
+    <t>Summanus</t>
+  </si>
+  <si>
+    <t>Pluto?</t>
+  </si>
+  <si>
+    <t>Nocturnal Thunder</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Diurnal Thunder</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Teleports you somewhere</t>
+  </si>
+  <si>
+    <t>Speed buff and decrease in falling speed</t>
+  </si>
+  <si>
+    <t>Corona Astralis</t>
+  </si>
+  <si>
+    <t>Bacchus</t>
+  </si>
+  <si>
+    <t>Astral item count: 1(fire resist), 2(melee damage), 3(mp regen), 4(magic damage), 5(hp regen)</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Invictus</t>
+  </si>
+  <si>
+    <t>Shoots fireballs</t>
+  </si>
+  <si>
+    <t>360 blast that triggers burn on all enemies</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>Astraea</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Return damage, increases max HP</t>
+  </si>
+  <si>
+    <t>Aegis</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>Warfare; Wisdom</t>
+  </si>
+  <si>
+    <t>Throw the shield (boomerang)</t>
+  </si>
+  <si>
+    <t>Bash - decrease armor of hit enemies</t>
+  </si>
+  <si>
+    <t>More def while held</t>
+  </si>
+  <si>
+    <t>Talaria</t>
+  </si>
+  <si>
+    <t>Super boot effect</t>
+  </si>
+  <si>
+    <t>Heracles' Club</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Sharur</t>
+  </si>
+  <si>
+    <t>Ninurta</t>
+  </si>
+  <si>
+    <t>Agriculture; Hunting</t>
+  </si>
+  <si>
+    <t>Shoots a guided mace</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Neptune's trident</t>
+  </si>
+  <si>
+    <t>Neptune</t>
   </si>
 </sst>
 </file>
@@ -567,12 +714,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -587,11 +746,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -872,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,23 +1133,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
@@ -1239,6 +1383,29 @@
         <v>131</v>
       </c>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
@@ -1448,6 +1615,7 @@
       <c r="D41" t="s">
         <v>56</v>
       </c>
+      <c r="E41" s="5"/>
       <c r="F41" t="s">
         <v>19</v>
       </c>
@@ -1459,6 +1627,297 @@
       </c>
       <c r="I41" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" t="s">
+        <v>112</v>
+      </c>
+      <c r="I53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A96329E-5EAB-4AD5-8C88-C04F1E14AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7899C1-31EC-44C9-9F0B-B748E89E5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2535" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="2250" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="194">
   <si>
     <t>Mythology</t>
   </si>
@@ -683,6 +683,21 @@
   </si>
   <si>
     <t>Neptune</t>
+  </si>
+  <si>
+    <t>Tiamat (Nammu)</t>
+  </si>
+  <si>
+    <t>Tiamat's nam-sub</t>
+  </si>
+  <si>
+    <t>blast that follows the ground (gravity) to left and right of player</t>
+  </si>
+  <si>
+    <t>killed enemies with specific weapon spawn projectiles</t>
+  </si>
+  <si>
+    <t>Sun; Justice</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1320,20 @@
         <v>49</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>51</v>
@@ -1360,7 +1389,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24201862-C354-4BAF-A7F0-E31CBE5F5ECA}">
-  <dimension ref="B1:B6"/>
+  <dimension ref="B1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,22 +2057,32 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\My Games\Terraria\ModLoader\Mod Sources\Overdone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7899C1-31EC-44C9-9F0B-B748E89E5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE450D8B-951B-4F7C-A6D3-BAB9D4E756DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8145" yWindow="2250" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
   <si>
     <t>Mythology</t>
   </si>
@@ -679,9 +679,6 @@
     <t>Melee</t>
   </si>
   <si>
-    <t>Neptune's trident</t>
-  </si>
-  <si>
     <t>Neptune</t>
   </si>
   <si>
@@ -698,6 +695,18 @@
   </si>
   <si>
     <t>Sun; Justice</t>
+  </si>
+  <si>
+    <t>Poseidons trident</t>
+  </si>
+  <si>
+    <t>Neptunes trident</t>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>Hero</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,13 +1331,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -1389,7 +1398,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,6 +1434,7 @@
       <c r="D29" t="s">
         <v>184</v>
       </c>
+      <c r="E29" s="5"/>
       <c r="F29" t="s">
         <v>19</v>
       </c>
@@ -1491,6 +1501,7 @@
       <c r="D35" t="s">
         <v>98</v>
       </c>
+      <c r="E35" s="5"/>
       <c r="F35" t="s">
         <v>19</v>
       </c>
@@ -1830,13 +1841,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
         <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" t="s">
         <v>58</v>
@@ -1876,6 +1887,10 @@
       <c r="D59" t="s">
         <v>62</v>
       </c>
+      <c r="E59" s="5"/>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
       <c r="G59" t="s">
         <v>149</v>
       </c>
@@ -1942,11 +1957,32 @@
       <c r="C62" t="s">
         <v>181</v>
       </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2057,12 +2093,12 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
